--- a/2.1 VKO primjeri (N).xlsx
+++ b/2.1 VKO primjeri (N).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{347C5864-3306-4173-9422-FB9B8339A327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5DF7AD-9DF2-4C24-8921-64D80CA611AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Izbor BD" sheetId="3" r:id="rId1"/>
@@ -13,17 +13,26 @@
     <sheet name="Odabir automobila" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
   <si>
     <t>Opcija</t>
   </si>
@@ -400,12 +409,24 @@
   <si>
     <t>vrlo visoka</t>
   </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Težine kriterija</t>
+  </si>
+  <si>
+    <t>Transformacija opisnih kriterija</t>
+  </si>
+  <si>
+    <t>Transformacija opisnih kriterija u kriterij koristi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,8 +492,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,6 +660,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1341,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:I10"/>
+  <dimension ref="B3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,7 +1406,7 @@
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="C4" s="19" t="s">
         <v>43</v>
@@ -1403,7 +1454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="16" t="s">
         <v>37</v>
@@ -1411,13 +1462,23 @@
       <c r="D5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1443,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1521,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
@@ -1547,11 +1608,419 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="23">
+        <f>SUM(D12:I12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>90</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>70</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7</v>
+      </c>
+      <c r="I25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+      <c r="C32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="F33" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2.1 VKO primjeri (N).xlsx
+++ b/2.1 VKO primjeri (N).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5DF7AD-9DF2-4C24-8921-64D80CA611AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F3480A-9C03-4936-BCD3-228ADC61C2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1395,7 +1395,7 @@
   <dimension ref="B3:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1974,6 +1974,30 @@
       <c r="C34" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="D34" s="1">
+        <f>IF(D$19="max",D21,1/D21)</f>
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" ref="E34:I34" si="0">IF(E$19="max",E21,1/E21)</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
@@ -1982,6 +2006,30 @@
       <c r="C35" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:I35" si="1">IF(D$19="max",D22,1/D22)</f>
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
@@ -1990,6 +2038,30 @@
       <c r="C36" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:I36" si="2">IF(D$19="max",D23,1/D23)</f>
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
@@ -1998,6 +2070,30 @@
       <c r="C37" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:I37" si="3">IF(D$19="max",D24,1/D24)</f>
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15873015873015872</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
@@ -2006,12 +2102,30 @@
       <c r="C38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="D38" s="1">
+        <f t="shared" ref="D38:I38" si="4">IF(D$19="max",D25,1/D25)</f>
+        <v>6</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/2.1 VKO primjeri (N).xlsx
+++ b/2.1 VKO primjeri (N).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F3480A-9C03-4936-BCD3-228ADC61C2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE826C43-DD3F-4455-AFCB-DBA17A7D7CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Izbor BD" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="67">
   <si>
     <t>Opcija</t>
   </si>
@@ -421,12 +421,33 @@
   <si>
     <t>Transformacija opisnih kriterija u kriterij koristi</t>
   </si>
+  <si>
+    <t>tež. krit.</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Maksimalno po kriteriju</t>
+  </si>
+  <si>
+    <t>SAW</t>
+  </si>
+  <si>
+    <t>Vagani prosjek</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +520,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -593,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,26 +690,35 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,12 +1111,12 @@
     <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
@@ -1163,12 +1207,12 @@
     <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
@@ -1274,15 +1318,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:E9"/>
+  <dimension ref="B3:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
     <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
@@ -1385,8 +1430,609 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="2:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>115</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>900</v>
+      </c>
+      <c r="D16" s="1">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="1">
+        <v>130</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>700</v>
+      </c>
+      <c r="D19" s="1">
+        <v>95</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1100</v>
+      </c>
+      <c r="D20" s="2">
+        <v>110</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="D27" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="30">
+        <f>1/C15</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>115</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="30">
+        <f t="shared" ref="C29:C33" si="0">1/C16</f>
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="30">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339E-4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>130</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="30">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090909E-4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="30">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>95</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="30">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090909E-4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>110</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="30">
+        <f>MAX(C28:C33)</f>
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="D34" s="1">
+        <f>MAX(D28:D33)</f>
+        <v>130</v>
+      </c>
+      <c r="E34" s="1">
+        <f>MAX(E28:E33)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="22"/>
+      <c r="C39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="D40" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="E40" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="30">
+        <f>C28/C$34</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D41" s="30">
+        <f>D28/D$34</f>
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="E41" s="30">
+        <f>E28/E$34</f>
+        <v>0.8</v>
+      </c>
+      <c r="F41" s="30">
+        <f>C41*C$40+D41*D$40+E41*E$40</f>
+        <v>0.77692307692307705</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="30">
+        <f t="shared" ref="C42:E46" si="1">C29/C$34</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D42" s="30">
+        <f t="shared" si="1"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="E42" s="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="30">
+        <f t="shared" ref="F42:F46" si="2">C42*C$40+D42*D$40+E42*E$40</f>
+        <v>0.84957264957264966</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="30">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D43" s="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="30">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F43" s="30">
+        <f t="shared" si="2"/>
+        <v>0.67333333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="30">
+        <f t="shared" si="1"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="D44" s="30">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="E44" s="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="30">
+        <f t="shared" si="2"/>
+        <v>0.80839160839160851</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="30">
+        <f t="shared" si="1"/>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="E45" s="30">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F45" s="30">
+        <f t="shared" si="2"/>
+        <v>0.70615384615384624</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="30">
+        <f t="shared" si="1"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="D46" s="30">
+        <f t="shared" si="1"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E46" s="30">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F46" s="30">
+        <f t="shared" si="2"/>
+        <v>0.66377622377622381</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="30"/>
+    </row>
+    <row r="52" spans="2:6" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="22"/>
+      <c r="C53" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="D54" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="30">
+        <f>1/C42</f>
+        <v>1.2857142857142856</v>
+      </c>
+      <c r="D55" s="1">
+        <v>115</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="30">
+        <f t="shared" ref="C56:C60" si="3">1/C43</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="D56" s="1">
+        <v>90</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="30">
+        <f t="shared" si="3"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="D57" s="1">
+        <v>130</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>100</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="30">
+        <f t="shared" si="3"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="D59" s="1">
+        <v>95</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="2">
+        <v>110</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="30" t="e">
+        <f>MAX(C55:C60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="1">
+        <f>MAX(D55:D60)</f>
+        <v>130</v>
+      </c>
+      <c r="E61" s="1">
+        <f>MAX(E55:E60)</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1394,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
@@ -1407,10 +2053,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="13" t="s">
         <v>36</v>
       </c>
@@ -1612,39 +2258,39 @@
       <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <v>0.1</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>0.3</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="21">
         <v>0.1</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <v>0.15</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="21">
         <v>0.3</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>0.05</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="21">
         <f>SUM(D12:I12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13" t="s">
         <v>36</v>
       </c>
@@ -1713,26 +2359,26 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <v>0.1</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <v>0.3</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="24">
         <v>0.1</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="24">
         <v>0.15</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="24">
         <v>0.3</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="24">
         <v>0.05</v>
       </c>
     </row>
@@ -1867,15 +2513,15 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="13" t="s">
         <v>36</v>
       </c>
@@ -1944,26 +2590,26 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="24">
         <v>0.1</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="24">
         <v>0.3</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="24">
         <v>0.1</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="24">
         <v>0.15</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="24">
         <v>0.3</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="24">
         <v>0.05</v>
       </c>
     </row>
